--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_09-17.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_09-17.xlsx
@@ -35,10 +35,10 @@
     <t xml:space="preserve">BEBY RELIEF 25 MG  SUPP</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>1:0</t>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>Saturday, 17 January, 2026 9:17 AM</t>
@@ -637,7 +637,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>-38</v>
+        <v>19</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -646,7 +646,7 @@
     </row>
     <row r="5" ht="26.25" customHeight="1">
       <c r="K5" s="10">
-        <v>-38</v>
+        <v>19</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
